--- a/output/plannet-PlanNet-Location.xlsx
+++ b/output/plannet-PlanNet-Location.xlsx
@@ -146,7 +146,7 @@
     <t>plannet-PlanNet-Location</t>
   </si>
   <si>
-    <t>PlanNet-Location</t>
+    <t>A PlanNet-Location is the physical place where healthcare services are provided, practitioners are employed, organizations are based, etc. Locations can range in scope from a room in a building to a geographic region/area.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -329,6 +329,16 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
+    <t>viaintermediary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/davinci-pdex-plan-net/StructureDefinition/plannet-ViaIntermediary-extension}
+</t>
+  </si>
+  <si>
+    <t>ViaIntermediary is a reference to an alternative point of contact for this organization</t>
+  </si>
+  <si>
     <t>accessibility</t>
   </si>
   <si>
@@ -336,7 +346,7 @@
 </t>
   </si>
   <si>
-    <t>Accessibilty</t>
+    <t>Accessibilty indicates accessibility options offered by the practitioner (e.g. cultural competence)</t>
   </si>
   <si>
     <t>availabletime</t>
@@ -346,17 +356,7 @@
 </t>
   </si>
   <si>
-    <t>AvailableTime</t>
-  </si>
-  <si>
-    <t>viaintermediary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/uv/vhdir/StructureDefinition/contactpoint-viaintermediary}
-</t>
-  </si>
-  <si>
-    <t>ViaIntermediary</t>
+    <t>AvailableTime indicates when an organization is available for contact</t>
   </si>
   <si>
     <t>newpatientprofile</t>
@@ -366,7 +366,7 @@
 </t>
   </si>
   <si>
-    <t>New Patient Profile</t>
+    <t>New Patient Profile is a description of the type of new patients a practitioner accepts in their role (e.g. pediatric only)</t>
   </si>
   <si>
     <t>newpatients</t>
@@ -376,7 +376,7 @@
 </t>
   </si>
   <si>
-    <t>New Patients</t>
+    <t>New Patients indicates whether the practitioner is accepting new patients in their role</t>
   </si>
   <si>
     <t>Location.modifierExtension</t>
@@ -2283,7 +2283,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>39</v>
@@ -2495,7 +2495,7 @@
         <v>40</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>39</v>
